--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail10 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="17" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>2.963038161726543e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.433388371938915</v>
+        <v>1.629697926068267e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.981288642444678</v>
+        <v>7.440443590061247e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.629697926068267e-07</v>
+        <v>0.08110774056002064</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.440443590061247e-07</v>
+        <v>0.198943970461555</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08110774056002064</v>
+        <v>0.04606362818669885</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.198943970461555</v>
+        <v>1.916742125368575</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04606362818669885</v>
+        <v>3.49193737364621</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.953618975030255</v>
+        <v>5.287080448173553</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.49193737364621</v>
+        <v>1.454098787012299e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.287080448173553</v>
+        <v>33871333451.06162</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.454098787012299e-18</v>
+        <v>3.5342671423016e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>33871333451.06162</v>
+        <v>1668.239887162807</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.5342671423016e-09</v>
+        <v>0.0001275838211283456</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1668.239887162807</v>
+        <v>10.83523032969782</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001275838211283456</v>
+        <v>1.122499070585152</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.83523032969782</v>
+        <v>0.0149786233641848</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.122499070585152</v>
+        <v>4.121939941829956</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0149786233641848</v>
+        <v>0.9584825988825578</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.121939941829956</v>
+        <v>0.9330527983844367</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9584825988825578</v>
+        <v>121</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9330527983844367</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>3.505545058326244</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>2.476452689182796e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.267752666974526</v>
+        <v>1.3192578622152e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.10244296484796</v>
+        <v>7.461736798092239e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.3192578622152e-07</v>
+        <v>0.0761222482628465</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.461736798092239e-07</v>
+        <v>0.1839222264253886</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0761222482628465</v>
+        <v>0.03954823588803346</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1839222264253886</v>
+        <v>1.919392540752322</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03954823588803346</v>
+        <v>3.611719717125954</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.952425824176244</v>
+        <v>5.139800151052247</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.611719717125954</v>
+        <v>1.538626768558587e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.139800151052247</v>
+        <v>33631738285.08289</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.538626768558587e-18</v>
+        <v>3.578098544708644e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>33631738285.08289</v>
+        <v>1740.3312293206</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.578098544708644e-09</v>
+        <v>0.0001307812218620353</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1740.3312293206</v>
+        <v>10.89572113561879</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001307812218620353</v>
+        <v>1.119281273464831</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.89572113561879</v>
+        <v>0.01552592019041935</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.119281273464831</v>
+        <v>3.918885340512104</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01552592019041935</v>
+        <v>0.9587537181504202</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.918885340512104</v>
+        <v>0.9463797641057223</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9587537181504202</v>
+        <v>154</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9463797641057223</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.118135633914425</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>2.10481832792172e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.122287792074282</v>
+        <v>1.090668719600389e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.442742371951891</v>
+        <v>7.478570398537136e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.090668719600389e-07</v>
+        <v>0.0714359444791469</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.478570398537136e-07</v>
+        <v>0.1728875942130674</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0714359444791469</v>
+        <v>0.03493771861817647</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1728875942130674</v>
+        <v>1.920742914450472</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03493771861817647</v>
+        <v>3.57946604705464</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.95444652535582</v>
+        <v>5.153200501124996</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.57946604705464</v>
+        <v>1.530635102141426e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.153200501124996</v>
+        <v>33971817067.34363</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.530635102141426e-18</v>
+        <v>3.539232184971313e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>33971817067.34363</v>
+        <v>1766.482024376458</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.539232184971313e-09</v>
+        <v>0.00012664427939408</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1766.482024376458</v>
+        <v>9.607665045539525</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.00012664427939408</v>
+        <v>1.210339108312454</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.607665045539525</v>
+        <v>0.01169018232572245</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.210339108312454</v>
+        <v>4.010707024675888</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01169018232572245</v>
+        <v>0.9572171991403092</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.010707024675888</v>
+        <v>0.9347466206000513</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9572171991403092</v>
+        <v>176</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9347466206000513</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>176</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.924223044529495</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>1.813536809183303e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.988575459110525</v>
+        <v>9.212100679161953e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.966521131368351</v>
+        <v>7.492120960028757e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.212100679161953e-08</v>
+        <v>0.06741253674700247</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.492120960028757e-07</v>
+        <v>0.1670475078710827</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06741253674700247</v>
+        <v>0.03240760668799089</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1670475078710827</v>
+        <v>1.926336147642499</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03240760668799089</v>
+        <v>3.306439611030956</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.95551801362267</v>
+        <v>5.080050355069222</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.306439611030956</v>
+        <v>1.575033209042369e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.080050355069222</v>
+        <v>31971498277.75222</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.575033209042369e-18</v>
+        <v>3.76825121227452e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>31971498277.75222</v>
+        <v>1609.962251355202</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.76825121227452e-09</v>
+        <v>0.0001146549943330954</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1609.962251355202</v>
+        <v>8.312286060279288</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001146549943330954</v>
+        <v>1.360008218731277</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.312286060279288</v>
+        <v>0.007921983592116332</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.360008218731277</v>
+        <v>4.3404497133988</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007921983592116332</v>
+        <v>0.9576710778158705</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.3404497133988</v>
+        <v>0.9546716187420878</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9576710778158705</v>
+        <v>168</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9546716187420878</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.335430925336349</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>1.578668544503882e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.851453852275678</v>
+        <v>7.930089863741104e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.601688445212158</v>
+        <v>7.503244501267636e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.930089863741104e-08</v>
+        <v>0.0642213725444376</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.503244501267636e-07</v>
+        <v>0.1662091767536081</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0642213725444376</v>
+        <v>0.03171769389890925</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1662091767536081</v>
+        <v>1.92900123972397</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03171769389890925</v>
+        <v>2.984518502795487</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.957287569976927</v>
+        <v>4.787232686421027</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.984518502795487</v>
+        <v>1.773604063903601e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.787232686421027</v>
+        <v>28405894628.32984</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.773604063903601e-18</v>
+        <v>4.239978682039727e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>28405894628.32984</v>
+        <v>1431.111984456901</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.239978682039727e-09</v>
+        <v>9.887644552094524e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1431.111984456901</v>
+        <v>7.807040685827348</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.887644552094524e-05</v>
+        <v>1.460324073349261</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.807040685827348</v>
+        <v>0.006026507911546743</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.460324073349261</v>
+        <v>4.782803701173912</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006026507911546743</v>
+        <v>0.9584352619945801</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.782803701173912</v>
+        <v>0.9643985963376018</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9584352619945801</v>
+        <v>168</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9643985963376018</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.230393226309018</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>1.384101500635851e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.691987992646149</v>
+        <v>6.939041496809924e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.2594915054328</v>
+        <v>7.512564115734376e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.939041496809924e-08</v>
+        <v>0.06205383059801062</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.512564115734376e-07</v>
+        <v>0.1699557508592361</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.06205383059801062</v>
+        <v>0.03270966791369852</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1699557508592361</v>
+        <v>1.927558172219463</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03270966791369852</v>
+        <v>3.240887002997711</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.95828262958547</v>
+        <v>4.989917519977562</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.240887002997711</v>
+        <v>2.263430843879667e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.989917519977562</v>
+        <v>21371228897.39277</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.263430843879667e-18</v>
+        <v>5.606921664447149e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>21371228897.39277</v>
+        <v>1033.775466912549</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.606921664447149e-09</v>
+        <v>9.94070355266875e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1033.775466912549</v>
+        <v>9.404483442741208</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.94070355266875e-05</v>
+        <v>1.231447708046538</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.404483442741208</v>
+        <v>0.008791986549479571</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.231447708046538</v>
+        <v>4.810095183619604</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008791986549479571</v>
+        <v>0.9580060844518336</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.810095183619604</v>
+        <v>0.9851147668139019</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9580060844518336</v>
+        <v>168</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9851147668139019</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.663305141018038</v>
       </c>
     </row>
@@ -5252,72 +5204,66 @@
         <v>1.219106426906951e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.487872705591375</v>
+        <v>6.140747382361477e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.832505890070327</v>
+        <v>7.520540913402301e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.140747382361477e-08</v>
+        <v>0.06092500560877003</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.520540913402301e-07</v>
+        <v>0.1772691648990916</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06092500560877003</v>
+        <v>0.03511281955426339</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1772691648990916</v>
+        <v>1.926502991993547</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03511281955426339</v>
+        <v>3.09920144000626</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.959652850962769</v>
+        <v>4.979719268374614</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.09920144000626</v>
+        <v>2.93405663651443e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.979719268374614</v>
+        <v>16667572332.23293</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.93405663651443e-18</v>
+        <v>7.194130121701805e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>16667572332.23293</v>
+        <v>815.1043105738923</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.194130121701805e-09</v>
+        <v>0.0001351706141282065</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>815.1043105738923</v>
+        <v>10.68625257135709</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001351706141282065</v>
+        <v>1.208688387158886</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.68625257135709</v>
+        <v>0.01543594264250707</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.208688387158886</v>
+        <v>4.270513219403927</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01543594264250707</v>
+        <v>0.95859686911376</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.270513219403927</v>
+        <v>0.9423687182733644</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.95859686911376</v>
+        <v>168</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9423687182733644</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.838075744241066</v>
       </c>
     </row>
@@ -5332,72 +5278,66 @@
         <v>1.077537412663671e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.218598400265648</v>
+        <v>5.459162279590167e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.21793179702149</v>
+        <v>7.527487458486991e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.459162279590167e-08</v>
+        <v>0.06024547494098755</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.527487458486991e-07</v>
+        <v>0.1867394950642158</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.06024547494098755</v>
+        <v>0.03847768584232006</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1867394950642158</v>
+        <v>1.915587446997323</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03847768584232006</v>
+        <v>2.654486755676149</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.936995672052211</v>
+        <v>7.037560516980777</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.654486755676149</v>
+        <v>4.078942162171625e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>7.037560516980777</v>
+        <v>12043568147.32067</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.078942162171625e-18</v>
+        <v>9.934443410471384e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>12043568147.32067</v>
+        <v>591.6405008060806</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.934443410471384e-09</v>
+        <v>0.0001426707162809008</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>591.6405008060806</v>
+        <v>11.72687380649889</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001426707162809008</v>
+        <v>1.122185158780993</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.72687380649889</v>
+        <v>0.01962001545089831</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.122185158780993</v>
+        <v>4.085837022344133</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01962001545089831</v>
+        <v>0.9591630092575633</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.085837022344133</v>
+        <v>1.1317779861468</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9591630092575633</v>
+        <v>162</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.1317779861468</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.852825809471755</v>
       </c>
     </row>
@@ -5774,7 +5714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.347386108612812</v>
+        <v>1.340106052321875</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.341533287364052</v>
@@ -5863,7 +5803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.344976069744144</v>
+        <v>1.336917286341428</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.159512142823402</v>
@@ -5952,7 +5892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.355249409600984</v>
+        <v>1.344991989206818</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.279727961430864</v>
@@ -6041,7 +5981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.350172803424696</v>
+        <v>1.339718174339224</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.01773776227371</v>
@@ -6130,7 +6070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.372344394898402</v>
+        <v>1.361128105950742</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.508190915395464</v>
@@ -6219,7 +6159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.379270618048884</v>
+        <v>1.367305713595017</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.400164190596172</v>
@@ -6308,7 +6248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.374676637919842</v>
+        <v>1.364923103315742</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.42569523999222</v>
@@ -6397,7 +6337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.369831274347387</v>
+        <v>1.360690858836306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.602147838217753</v>
@@ -6486,7 +6426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.366963617489291</v>
+        <v>1.358991401782641</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.515666191640246</v>
@@ -6575,7 +6515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.356386595401775</v>
+        <v>1.351182314988116</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.338863200333802</v>
@@ -6664,7 +6604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.3545239476191</v>
+        <v>1.347700503959451</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.419514141219627</v>
@@ -6753,7 +6693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.37416494144139</v>
+        <v>1.365978154501634</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.211866870332111</v>
@@ -6842,7 +6782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.360191271488671</v>
+        <v>1.347963579478335</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.532841499940899</v>
@@ -6931,7 +6871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.381135920434729</v>
+        <v>1.368152547820958</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.442929029043099</v>
@@ -7020,7 +6960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.357447547589181</v>
+        <v>1.3446505251683</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.098828261488549</v>
@@ -7109,7 +7049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.3786759066691</v>
+        <v>1.365396654554772</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.085960431018937</v>
@@ -7198,7 +7138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.409235632994367</v>
+        <v>1.394299828310656</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.125071518925786</v>
@@ -7287,7 +7227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.38907766123427</v>
+        <v>1.376975583676116</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.094465361430169</v>
@@ -7376,7 +7316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.406041075193279</v>
+        <v>1.39321382593616</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.129106205187994</v>
@@ -7465,7 +7405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.404725067769407</v>
+        <v>1.392267246184085</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.172364924592394</v>
@@ -7554,7 +7494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.421347893756062</v>
+        <v>1.408976723722263</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.154640033744885</v>
@@ -7643,7 +7583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.414643820766766</v>
+        <v>1.40452526566175</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.151291755916645</v>
@@ -7732,7 +7672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.418143583370201</v>
+        <v>1.409572349678645</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.070666883334131</v>
@@ -7821,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.404988856161466</v>
+        <v>1.398989366098449</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.220011383491872</v>
@@ -7910,7 +7850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.425312566417597</v>
+        <v>1.419025506015112</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.186338253480695</v>
@@ -7999,7 +7939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.430776299462363</v>
+        <v>1.428740587094306</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.220789526600824</v>
@@ -8088,7 +8028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.400664540756346</v>
+        <v>1.406435158606522</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.172384090620596</v>
@@ -8177,7 +8117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.417076026301024</v>
+        <v>1.426623673975099</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.181137802258718</v>
@@ -8266,7 +8206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.423177598515133</v>
+        <v>1.422033771600174</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.234074341838006</v>
@@ -8355,7 +8295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.4136835710289</v>
+        <v>1.418994424413171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.423302599185678</v>
@@ -8444,7 +8384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.3938024347138</v>
+        <v>1.402052074674018</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.463327349800861</v>
@@ -8533,7 +8473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.415258625939776</v>
+        <v>1.419211734142688</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.184076561906151</v>
@@ -8622,7 +8562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.409945752807948</v>
+        <v>1.415043719697745</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.456754674330983</v>
@@ -8711,7 +8651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.416450493115176</v>
+        <v>1.419080723119429</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.363394243562094</v>
@@ -8800,7 +8740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.399948407647505</v>
+        <v>1.403897690369938</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.385279135525641</v>
@@ -8889,7 +8829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.412171216794661</v>
+        <v>1.419444903388182</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.317036294967239</v>
@@ -8978,7 +8918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.422400420066945</v>
+        <v>1.429549651404958</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.510542856080072</v>
@@ -9067,7 +9007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.427893527172284</v>
+        <v>1.429957977127964</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.491242473045874</v>
@@ -9156,7 +9096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.455871126134075</v>
+        <v>1.454621151903227</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.5235858949575</v>
@@ -9245,7 +9185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451883598448789</v>
+        <v>1.450560253626035</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.425781630714029</v>
@@ -9334,7 +9274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.455571830910387</v>
+        <v>1.452161567996016</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.259903644993707</v>
@@ -9423,7 +9363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.464062168403476</v>
+        <v>1.456409839979111</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.329538077038546</v>
@@ -9512,7 +9452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.462327961295982</v>
+        <v>1.455840379789057</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.193507801583692</v>
@@ -9601,7 +9541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.47031467531441</v>
+        <v>1.461062964310996</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.145200841949218</v>
@@ -9690,7 +9630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.519800585067593</v>
+        <v>1.511607773897897</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.142551588457656</v>
@@ -9779,7 +9719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.531676916204293</v>
+        <v>1.524868613195103</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.244574059500442</v>
@@ -9868,7 +9808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.503233195675251</v>
+        <v>1.502114706678931</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.125467121485042</v>
@@ -9957,7 +9897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526544436386437</v>
+        <v>1.529116583533652</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.179215047746938</v>
@@ -10046,7 +9986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.534223072324235</v>
+        <v>1.537943135096004</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.182960915538739</v>
@@ -10135,7 +10075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.563490152453294</v>
+        <v>1.561738673242834</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.118163185601119</v>
@@ -10224,7 +10164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.508434711169446</v>
+        <v>1.513006787795406</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.331181563339467</v>
@@ -10313,7 +10253,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.503971265919081</v>
+        <v>1.510733097306953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.318166861058365</v>
@@ -10402,7 +10342,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.528078729556278</v>
+        <v>1.535601081835786</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.309720186286507</v>
@@ -10688,7 +10628,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.264722075384339</v>
+        <v>1.261496195344389</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.010243870714121</v>
@@ -10777,7 +10717,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312995371519698</v>
+        <v>1.307679703531727</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.998229592386033</v>
@@ -10866,7 +10806,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.291449171991816</v>
+        <v>1.290348366676328</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.906610423698323</v>
@@ -10955,7 +10895,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.265400042821096</v>
+        <v>1.260074840280196</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.034607244450323</v>
@@ -11044,7 +10984,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.242477407220733</v>
+        <v>1.234690799639071</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.013074636097762</v>
@@ -11133,7 +11073,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.250328511043574</v>
+        <v>1.242367254949034</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.955288218556388</v>
@@ -11222,7 +11162,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.276225588355985</v>
+        <v>1.271154258065325</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.024010434233544</v>
@@ -11311,7 +11251,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.290949736740246</v>
+        <v>1.282370724638713</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.068899266537064</v>
@@ -11400,7 +11340,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.294886898595337</v>
+        <v>1.275999890193995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.130985114865639</v>
@@ -11489,7 +11429,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.261257578717956</v>
+        <v>1.256227433863423</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.151318549201975</v>
@@ -11578,7 +11518,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.286287808527917</v>
+        <v>1.276875068564298</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.98586797290803</v>
@@ -11667,7 +11607,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.29789168179334</v>
+        <v>1.288041930726116</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.128329995183952</v>
@@ -11756,7 +11696,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.299257981513118</v>
+        <v>1.28643380044097</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.099794783208315</v>
@@ -11845,7 +11785,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.268334858139788</v>
+        <v>1.253669288540672</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.089384953232962</v>
@@ -11934,7 +11874,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.279704010370661</v>
+        <v>1.266678235316172</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.025188188057328</v>
@@ -12023,7 +11963,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.277040417828291</v>
+        <v>1.264698071123569</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.049006907971557</v>
@@ -12112,7 +12052,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.276781722628943</v>
+        <v>1.264719420467738</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.988398752646046</v>
@@ -12201,7 +12141,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.297014982069989</v>
+        <v>1.281658041241623</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.94070789029815</v>
@@ -12290,7 +12230,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.330237233279534</v>
+        <v>1.314456362003117</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.894016741402158</v>
@@ -12379,7 +12319,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.367697061005067</v>
+        <v>1.354127106008112</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.967006855240041</v>
@@ -12468,7 +12408,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.371786161928108</v>
+        <v>1.357605360352411</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.977255722502095</v>
@@ -12557,7 +12497,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.33235570471593</v>
+        <v>1.31770319836526</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.018004559731618</v>
@@ -12646,7 +12586,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.312057381489091</v>
+        <v>1.300421660860449</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.927386236741539</v>
@@ -12735,7 +12675,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.326290088393362</v>
+        <v>1.316013574430061</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.749936313593296</v>
@@ -12824,7 +12764,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.340813830790653</v>
+        <v>1.332606919698293</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.975743585494613</v>
@@ -12913,7 +12853,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.339211573924177</v>
+        <v>1.339201482490825</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.915260944416776</v>
@@ -13002,7 +12942,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.340569418047936</v>
+        <v>1.341869561453767</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.937004483578668</v>
@@ -13091,7 +13031,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.362917047240503</v>
+        <v>1.364509444449515</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.04342028554543</v>
@@ -13180,7 +13120,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.405928255996308</v>
+        <v>1.409842114095676</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.978668238046563</v>
@@ -13269,7 +13209,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.393741131927713</v>
+        <v>1.396511773881726</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.034026680498961</v>
@@ -13358,7 +13298,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.365418258451012</v>
+        <v>1.363909684724019</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.997444213321089</v>
@@ -13447,7 +13387,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.362265500699678</v>
+        <v>1.364271478510855</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.011793255176758</v>
@@ -13536,7 +13476,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.362232373124802</v>
+        <v>1.363952921915936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.03293941367017</v>
@@ -13625,7 +13565,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.360972149338644</v>
+        <v>1.36350694934873</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.021843663640981</v>
@@ -13714,7 +13654,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.347425199232542</v>
+        <v>1.349616833110558</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.011322987058032</v>
@@ -13803,7 +13743,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.352081999398816</v>
+        <v>1.35118109871408</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.967855570325029</v>
@@ -13892,7 +13832,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.411521847931549</v>
+        <v>1.408339030647577</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.976617833593231</v>
@@ -13981,7 +13921,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.432287693844603</v>
+        <v>1.425944093371183</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.984155769885475</v>
@@ -14070,7 +14010,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.446180545318655</v>
+        <v>1.434552187696326</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.997605931195021</v>
@@ -14159,7 +14099,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451943966174842</v>
+        <v>1.438415509608122</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.024943631387137</v>
@@ -14248,7 +14188,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.447095517085698</v>
+        <v>1.431124322018716</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.048609530693057</v>
@@ -14337,7 +14277,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444537059031817</v>
+        <v>1.432225176284964</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.018218244210813</v>
@@ -14426,7 +14366,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.441235585094587</v>
+        <v>1.428095020803865</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.959605761909351</v>
@@ -14515,7 +14455,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.445149220916641</v>
+        <v>1.433358398301906</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.144609717299268</v>
@@ -14604,7 +14544,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463821361192671</v>
+        <v>1.458241591315709</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.051026363758946</v>
@@ -14693,7 +14633,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.530576431216668</v>
+        <v>1.520844941537177</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.832818551420583</v>
@@ -14782,7 +14722,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.518180683955984</v>
+        <v>1.501910683311595</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.623104244097565</v>
@@ -14871,7 +14811,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.503208097940975</v>
+        <v>1.497384498468442</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.69332409280641</v>
@@ -14960,7 +14900,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.515101442758922</v>
+        <v>1.505075901788741</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.90742382661894</v>
@@ -15049,7 +14989,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.527498462956749</v>
+        <v>1.51741899154371</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.727637316709978</v>
@@ -15138,7 +15078,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.540176772672643</v>
+        <v>1.52907136854962</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.821724946873668</v>
@@ -15227,7 +15167,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.542417993053802</v>
+        <v>1.531935951262957</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.84032184508166</v>
@@ -15316,7 +15256,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.547256221327162</v>
+        <v>1.543517961998789</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.908781307435399</v>
@@ -15602,7 +15542,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.479001432286485</v>
+        <v>1.458183789502563</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.690983771621638</v>
@@ -15691,7 +15631,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.494274267768887</v>
+        <v>1.465707356858958</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.533205421049733</v>
@@ -15780,7 +15720,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.503194630560484</v>
+        <v>1.476274710322667</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.625471569076948</v>
@@ -15869,7 +15809,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.520437344345023</v>
+        <v>1.48281182989491</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.688960824299216</v>
@@ -15958,7 +15898,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.551651460761063</v>
+        <v>1.516380315992328</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454577168153155</v>
@@ -16047,7 +15987,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554766048954451</v>
+        <v>1.517581093585013</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.310750117252101</v>
@@ -16136,7 +16076,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.604780634376387</v>
+        <v>1.56035465307724</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.796095081048888</v>
@@ -16225,7 +16165,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595271830237711</v>
+        <v>1.553790289834331</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.254395672970858</v>
@@ -16314,7 +16254,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590505687705689</v>
+        <v>1.545374092384171</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.139829372070687</v>
@@ -16403,7 +16343,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581757366995404</v>
+        <v>1.547263998305175</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.11404467662316</v>
@@ -16492,7 +16432,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.590351789625065</v>
+        <v>1.548893751182514</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.204494350840599</v>
@@ -16581,7 +16521,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595974770947306</v>
+        <v>1.554039565029381</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.321871116200119</v>
@@ -16670,7 +16610,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.572910144676545</v>
+        <v>1.528654973760692</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.115270784067792</v>
@@ -16759,7 +16699,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.577744891918101</v>
+        <v>1.536076726599284</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.941019752589884</v>
@@ -16848,7 +16788,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567644966729734</v>
+        <v>1.523805119409312</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.208060324939022</v>
@@ -16937,7 +16877,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.568214342836493</v>
+        <v>1.521174712790534</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.328346173627584</v>
@@ -17026,7 +16966,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555851672759572</v>
+        <v>1.511620478304112</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.191257551283644</v>
@@ -17115,7 +17055,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.545851030599598</v>
+        <v>1.501399983973512</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.630909964036819</v>
@@ -17204,7 +17144,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556659934121594</v>
+        <v>1.515649665972439</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.674791820430595</v>
@@ -17293,7 +17233,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556372587135075</v>
+        <v>1.505359433880568</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.60549334374157</v>
@@ -17382,7 +17322,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.563658582723786</v>
+        <v>1.510281570241499</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.70701036301079</v>
@@ -17471,7 +17411,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548311713533294</v>
+        <v>1.50125010442805</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.710355014991005</v>
@@ -17560,7 +17500,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.555597825166319</v>
+        <v>1.505528237610021</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.616484100063492</v>
@@ -17649,7 +17589,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.566755612033334</v>
+        <v>1.519693345944721</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.861728140488804</v>
@@ -17738,7 +17678,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.578189564045176</v>
+        <v>1.528782937379907</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.715993764992741</v>
@@ -17827,7 +17767,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583788952805986</v>
+        <v>1.540353463092756</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.631279986870996</v>
@@ -17916,7 +17856,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.574186279201583</v>
+        <v>1.531461832986168</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.547980561541998</v>
@@ -18005,7 +17945,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.594367475045771</v>
+        <v>1.55583838924419</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.543838836546763</v>
@@ -18094,7 +18034,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596551377631918</v>
+        <v>1.54727572817216</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.747579172967944</v>
@@ -18183,7 +18123,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606931619041269</v>
+        <v>1.555865324126732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.797233228082272</v>
@@ -18272,7 +18212,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605217635392833</v>
+        <v>1.552322776137507</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.034342008226725</v>
@@ -18361,7 +18301,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.640147020292933</v>
+        <v>1.57620149111678</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.030828877372977</v>
@@ -18450,7 +18390,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638630055335677</v>
+        <v>1.575684806300015</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.141934953451381</v>
@@ -18539,7 +18479,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.641448560028658</v>
+        <v>1.580048127496436</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.065522203643261</v>
@@ -18628,7 +18568,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637324249009795</v>
+        <v>1.580866542382869</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.371723617003237</v>
@@ -18717,7 +18657,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648543492965432</v>
+        <v>1.593145090806526</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.397360021839068</v>
@@ -18806,7 +18746,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.675926303873601</v>
+        <v>1.610746741689159</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.278971446232881</v>
@@ -18895,7 +18835,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.678588483544836</v>
+        <v>1.610443479449201</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.427370616228507</v>
@@ -18984,7 +18924,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.681020404153397</v>
+        <v>1.604577210725901</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.428374674408936</v>
@@ -19073,7 +19013,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.678470343461245</v>
+        <v>1.601530645346354</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.369983589583066</v>
@@ -19162,7 +19102,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.685586703547145</v>
+        <v>1.603830104139469</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.195957659943565</v>
@@ -19251,7 +19191,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.678483535126681</v>
+        <v>1.601655065330163</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.176437972058833</v>
@@ -19340,7 +19280,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.671097041563254</v>
+        <v>1.595767091508433</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.691925069347642</v>
@@ -19429,7 +19369,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.67750559651474</v>
+        <v>1.608733912466105</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.173587223268481</v>
@@ -19518,7 +19458,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.68902621611754</v>
+        <v>1.618901007500716</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.792847704406242</v>
@@ -19607,7 +19547,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.704385467581489</v>
+        <v>1.635620706285175</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.970502050584523</v>
@@ -19696,7 +19636,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692426851377256</v>
+        <v>1.629373343054714</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.149387785908213</v>
@@ -19785,7 +19725,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.710065925997354</v>
+        <v>1.649025116267961</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.040859909134501</v>
@@ -19874,7 +19814,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.706569782774759</v>
+        <v>1.644904955629627</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.828035820719099</v>
@@ -19963,7 +19903,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707649292270358</v>
+        <v>1.642793909628798</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.734446122335022</v>
@@ -20052,7 +19992,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.678815421950924</v>
+        <v>1.621714988132659</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.162890484365954</v>
@@ -20141,7 +20081,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.682032462263927</v>
+        <v>1.624856901422855</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.111829703846252</v>
@@ -20230,7 +20170,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.68286965429416</v>
+        <v>1.630985871387958</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.060440908945005</v>
@@ -20516,7 +20456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601359890107216</v>
+        <v>1.537476744354184</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.519438379987506</v>
@@ -20605,7 +20545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.58465430396135</v>
+        <v>1.515414498414739</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.50998227946594</v>
@@ -20694,7 +20634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.58648867597324</v>
+        <v>1.51532142733672</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.997279563165505</v>
@@ -20783,7 +20723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.577941274188959</v>
+        <v>1.500703367749221</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.844284515366302</v>
@@ -20872,7 +20812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.587524942456229</v>
+        <v>1.509735842781858</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.19943306993418</v>
@@ -20961,7 +20901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.58686221630667</v>
+        <v>1.50673960403634</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.399235888999834</v>
@@ -21050,7 +20990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.603543485199166</v>
+        <v>1.525748519653902</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.212990255842417</v>
@@ -21139,7 +21079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608718891326424</v>
+        <v>1.531918935603467</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.357797314498656</v>
@@ -21228,7 +21168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.617765151904202</v>
+        <v>1.537273668578422</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.414456686828509</v>
@@ -21317,7 +21257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622044062506417</v>
+        <v>1.543428800804921</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.973758967530552</v>
@@ -21406,7 +21346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624436975298124</v>
+        <v>1.544944351112918</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.085052985846664</v>
@@ -21495,7 +21435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.630836266191408</v>
+        <v>1.54564531300424</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.155220512346488</v>
@@ -21584,7 +21524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613599949648655</v>
+        <v>1.529578073498058</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.514997810747903</v>
@@ -21673,7 +21613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.618548785092005</v>
+        <v>1.536729157798658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.511725672305798</v>
@@ -21762,7 +21702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61680837278389</v>
+        <v>1.535486680335267</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.351612744591314</v>
@@ -21851,7 +21791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.630793666713508</v>
+        <v>1.549225189899571</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.448646316483577</v>
@@ -21940,7 +21880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.637306139724336</v>
+        <v>1.554730753631165</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.164756901879169</v>
@@ -22029,7 +21969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.623135837842574</v>
+        <v>1.544933605378932</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.928354499316543</v>
@@ -22118,7 +22058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.636043193456604</v>
+        <v>1.55260691583368</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.210988544397374</v>
@@ -22207,7 +22147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.634545065633462</v>
+        <v>1.54683994200621</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.197980573582474</v>
@@ -22296,7 +22236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.627941047180447</v>
+        <v>1.540516875550208</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.288685978932643</v>
@@ -22385,7 +22325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629305667885265</v>
+        <v>1.54134336470261</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.184755741978341</v>
@@ -22474,7 +22414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63428582928247</v>
+        <v>1.534954472764737</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.193810969244082</v>
@@ -22563,7 +22503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.631620044473818</v>
+        <v>1.537669506734159</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.190906609702889</v>
@@ -22652,7 +22592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.637383700188776</v>
+        <v>1.532805968978281</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.300713046153398</v>
@@ -22741,7 +22681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.623972922972743</v>
+        <v>1.518986225098999</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.732486634433722</v>
@@ -22830,7 +22770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.618832117631684</v>
+        <v>1.513823212416708</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.661817863344813</v>
@@ -22919,7 +22859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.634988662760456</v>
+        <v>1.527317117120931</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.967715217722168</v>
@@ -23008,7 +22948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641490965108133</v>
+        <v>1.53014347079319</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.946622752428682</v>
@@ -23097,7 +23037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.642799043375337</v>
+        <v>1.52650889383448</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.767444670620109</v>
@@ -23186,7 +23126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.632999395596061</v>
+        <v>1.515904698813399</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.948390417525382</v>
@@ -23275,7 +23215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.637882640802414</v>
+        <v>1.515958770333856</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.949196702333988</v>
@@ -23364,7 +23304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638765311323636</v>
+        <v>1.515094939972521</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.833540167265381</v>
@@ -23453,7 +23393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633426855807548</v>
+        <v>1.515078149341934</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.782462399631958</v>
@@ -23542,7 +23482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629491396986237</v>
+        <v>1.513607790985501</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.950476729478042</v>
@@ -23631,7 +23571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.643096890209823</v>
+        <v>1.52925794434891</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.97613288391361</v>
@@ -23720,7 +23660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643079060376939</v>
+        <v>1.52606439940134</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.726175492475822</v>
@@ -23809,7 +23749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.643274527890385</v>
+        <v>1.527946623779276</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.796594307426085</v>
@@ -23898,7 +23838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645447514862551</v>
+        <v>1.529011900173094</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.738334950046172</v>
@@ -23987,7 +23927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635421511713474</v>
+        <v>1.528646345814977</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.912962406665763</v>
@@ -24076,7 +24016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.651353924439099</v>
+        <v>1.540267922312063</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.002788023237203</v>
@@ -24165,7 +24105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.645116471395266</v>
+        <v>1.537908809906209</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.189831329114081</v>
@@ -24254,7 +24194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646821547723692</v>
+        <v>1.537164512948523</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.468733699629783</v>
@@ -24343,7 +24283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.648677614366726</v>
+        <v>1.546227127176889</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.125571291457404</v>
@@ -24432,7 +24372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.656127285608848</v>
+        <v>1.557771802296136</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.316599785522541</v>
@@ -24521,7 +24461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663892215016119</v>
+        <v>1.55821310545663</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.63387999863867</v>
@@ -24610,7 +24550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669909007110431</v>
+        <v>1.562222039498211</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.567239981994013</v>
@@ -24699,7 +24639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.681449885625488</v>
+        <v>1.572716353757393</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.586366745434394</v>
@@ -24788,7 +24728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.681803994095317</v>
+        <v>1.577541482080154</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.6594233339466</v>
@@ -24877,7 +24817,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.682953071269986</v>
+        <v>1.584954278269195</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.652323192038251</v>
@@ -24966,7 +24906,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.673284056698177</v>
+        <v>1.579722332144845</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.484554730255359</v>
@@ -25055,7 +24995,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.664633542294522</v>
+        <v>1.576452592432398</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.830083402238302</v>
@@ -25144,7 +25084,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.669782516724561</v>
+        <v>1.579195239058504</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.921518836105315</v>
@@ -25430,7 +25370,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.503812743169147</v>
+        <v>1.469175647067879</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.44743698782321</v>
@@ -25519,7 +25459,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.494055466183229</v>
+        <v>1.449571626255564</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.600187223316733</v>
@@ -25608,7 +25548,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.510231828426773</v>
+        <v>1.458566600582856</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.349918105093725</v>
@@ -25697,7 +25637,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501704301044252</v>
+        <v>1.447926169001981</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.832046812422948</v>
@@ -25786,7 +25726,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504677408440052</v>
+        <v>1.446880910424506</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.747126963183977</v>
@@ -25875,7 +25815,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.486237090818566</v>
+        <v>1.426300104092923</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.826127424957363</v>
@@ -25964,7 +25904,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.477960684612273</v>
+        <v>1.423770925650361</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.679072435530886</v>
@@ -26053,7 +25993,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.470662945092179</v>
+        <v>1.422672982221958</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.886441833220703</v>
@@ -26142,7 +26082,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4723062875946</v>
+        <v>1.42554370547852</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.803344893943142</v>
@@ -26231,7 +26171,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453374385054278</v>
+        <v>1.413156552633819</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.456037999857184</v>
@@ -26320,7 +26260,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.441034218425059</v>
+        <v>1.404279862396112</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.633376670196828</v>
@@ -26409,7 +26349,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.443698569797974</v>
+        <v>1.40565886260129</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.44498193192947</v>
@@ -26498,7 +26438,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.443389276772857</v>
+        <v>1.402360443599296</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.654575201806887</v>
@@ -26587,7 +26527,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.458542883459675</v>
+        <v>1.41575496474417</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.552788076768058</v>
@@ -26676,7 +26616,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.455098756600746</v>
+        <v>1.411001634078604</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.584864047620131</v>
@@ -26765,7 +26705,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.462885386497833</v>
+        <v>1.420081681076199</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.553728971992122</v>
@@ -26854,7 +26794,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.479952172436069</v>
+        <v>1.433055484907812</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.610153422858345</v>
@@ -26943,7 +26883,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.466175062856588</v>
+        <v>1.426444799201967</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.476227630654484</v>
@@ -27032,7 +26972,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.487834234500339</v>
+        <v>1.441160873737108</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.542289702242841</v>
@@ -27121,7 +27061,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.501248201549325</v>
+        <v>1.461908114480567</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.544735837953692</v>
@@ -27210,7 +27150,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.511631446298105</v>
+        <v>1.470920862088058</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.560569815799448</v>
@@ -27299,7 +27239,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.50377633529581</v>
+        <v>1.469781188557857</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.603543558538955</v>
@@ -27388,7 +27328,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.509380219664472</v>
+        <v>1.47362220483234</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.496103560476243</v>
@@ -27477,7 +27417,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506398002118985</v>
+        <v>1.474335492753215</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.323938443287218</v>
@@ -27566,7 +27506,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.530020807467167</v>
+        <v>1.495007839076459</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.689169695851759</v>
@@ -27655,7 +27595,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.551653029790576</v>
+        <v>1.520555008132503</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.534895079013048</v>
@@ -27744,7 +27684,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.555656627017715</v>
+        <v>1.525092963129531</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.567145306718145</v>
@@ -27833,7 +27773,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567231649897695</v>
+        <v>1.541434376620883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.628231664247564</v>
@@ -27922,7 +27862,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.559333763441169</v>
+        <v>1.52802904496886</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.615339606095347</v>
@@ -28011,7 +27951,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545863608458696</v>
+        <v>1.503735053804524</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.549939729627004</v>
@@ -28100,7 +28040,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.525761634571836</v>
+        <v>1.481066565755284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.639663456684649</v>
@@ -28189,7 +28129,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.527007839254135</v>
+        <v>1.478223669979399</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.542747887114876</v>
@@ -28278,7 +28218,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.523646917226259</v>
+        <v>1.470856579182471</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.845221700176971</v>
@@ -28367,7 +28307,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.521576397828994</v>
+        <v>1.47403636650674</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.864419090663103</v>
@@ -28456,7 +28396,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.491912459520613</v>
+        <v>1.45106374650547</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.710527836578596</v>
@@ -28545,7 +28485,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.501487009012894</v>
+        <v>1.454807313934125</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.479425286185536</v>
@@ -28634,7 +28574,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.505096681113314</v>
+        <v>1.457081861118122</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.620915408460133</v>
@@ -28723,7 +28663,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.512223312257287</v>
+        <v>1.459191851247112</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.715719860042901</v>
@@ -28812,7 +28752,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5161835032137</v>
+        <v>1.456924962764415</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.646216286194797</v>
@@ -28901,7 +28841,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.506236489943289</v>
+        <v>1.447846160902732</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.599556826593528</v>
@@ -28990,7 +28930,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494827190662392</v>
+        <v>1.437106328932415</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.430108913604502</v>
@@ -29079,7 +29019,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.486729923234677</v>
+        <v>1.426042406534255</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.492988964713995</v>
@@ -29168,7 +29108,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.47859519875725</v>
+        <v>1.41889596835234</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.476774208960228</v>
@@ -29257,7 +29197,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.484148087808881</v>
+        <v>1.426240538149094</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.430971114313299</v>
@@ -29346,7 +29286,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.507125359485998</v>
+        <v>1.457215793292302</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.381860577571406</v>
@@ -29435,7 +29375,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.520681464612313</v>
+        <v>1.476082394799882</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.455466745702275</v>
@@ -29524,7 +29464,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.516667046156018</v>
+        <v>1.475053092252973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.325116626461955</v>
@@ -29613,7 +29553,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530113254004318</v>
+        <v>1.495380207111989</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.323752747293128</v>
@@ -29702,7 +29642,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.521337075384373</v>
+        <v>1.486848155903698</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.430169726311346</v>
@@ -29791,7 +29731,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.540596190359094</v>
+        <v>1.499737524408901</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.347764215260946</v>
@@ -29880,7 +29820,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.51664177535615</v>
+        <v>1.478810162425389</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.384938320589752</v>
@@ -29969,7 +29909,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.515020661200363</v>
+        <v>1.478368401165507</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.38380786346433</v>
@@ -30058,7 +29998,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.521459915748642</v>
+        <v>1.486789957044655</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.440137609416388</v>
@@ -30344,7 +30284,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.225937029898594</v>
+        <v>1.21475971448669</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.333575802772977</v>
@@ -30433,7 +30373,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.231038527193993</v>
+        <v>1.219536351669593</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.116348067415795</v>
@@ -30522,7 +30462,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.235240135793087</v>
+        <v>1.224259339426991</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.086458266447897</v>
@@ -30611,7 +30551,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.236121022686977</v>
+        <v>1.224397183470907</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.063633146100653</v>
@@ -30700,7 +30640,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.249828248682766</v>
+        <v>1.237769259732791</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.41662454941278</v>
@@ -30789,7 +30729,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.254420011389574</v>
+        <v>1.243040299965175</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.297241175346642</v>
@@ -30878,7 +30818,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.248507847934749</v>
+        <v>1.239247169456928</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.256999704666833</v>
@@ -30967,7 +30907,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.24903066782121</v>
+        <v>1.238680387058405</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.394238969941699</v>
@@ -31056,7 +30996,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.255708350294671</v>
+        <v>1.248241094857489</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.282259364015117</v>
@@ -31145,7 +31085,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.248437839859253</v>
+        <v>1.244064110532115</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.046095034945162</v>
@@ -31234,7 +31174,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.253441825205698</v>
+        <v>1.244917016324884</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.230259623372233</v>
@@ -31323,7 +31263,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.269608007111083</v>
+        <v>1.261446396362739</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.082819507630051</v>
@@ -31412,7 +31352,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.265232390193801</v>
+        <v>1.255656096940869</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.416764709976643</v>
@@ -31501,7 +31441,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.286285263332321</v>
+        <v>1.275587991153708</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.335332962344575</v>
@@ -31590,7 +31530,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.271388627330044</v>
+        <v>1.258040791527674</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.272313303984766</v>
@@ -31679,7 +31619,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.277798090179093</v>
+        <v>1.266663712837402</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.186595342585097</v>
@@ -31768,7 +31708,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.294973374542897</v>
+        <v>1.276205751310555</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.233190858828427</v>
@@ -31857,7 +31797,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.281817265578258</v>
+        <v>1.265704817669642</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.132365911570949</v>
@@ -31946,7 +31886,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.296688780983209</v>
+        <v>1.27785392713307</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.273660694382938</v>
@@ -32035,7 +31975,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.294845041514189</v>
+        <v>1.278465998431895</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.447158162357948</v>
@@ -32124,7 +32064,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.305905766453501</v>
+        <v>1.286725194259725</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.262493366283766</v>
@@ -32213,7 +32153,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.30269104742788</v>
+        <v>1.288183879504917</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.247265857894691</v>
@@ -32302,7 +32242,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.311617951608393</v>
+        <v>1.297336811186684</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.178429755079351</v>
@@ -32391,7 +32331,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.298977139094233</v>
+        <v>1.285650512269666</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.502244592597314</v>
@@ -32480,7 +32420,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.30801379567971</v>
+        <v>1.292364506711671</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.308922623473843</v>
@@ -32569,7 +32509,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.31679862266823</v>
+        <v>1.303158312781144</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.40127137893099</v>
@@ -32658,7 +32598,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.286764759410439</v>
+        <v>1.27870772974724</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.21069670990216</v>
@@ -32747,7 +32687,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.292578110351956</v>
+        <v>1.287428473859202</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.178020192328748</v>
@@ -32836,7 +32776,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.293168383158583</v>
+        <v>1.281249590712536</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.364985656359124</v>
@@ -32925,7 +32865,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.283752358587731</v>
+        <v>1.27485566205919</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.180179995501226</v>
@@ -33014,7 +32954,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.274915317861438</v>
+        <v>1.265390013900963</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.362437552272886</v>
@@ -33103,7 +33043,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.287204838386902</v>
+        <v>1.280698953800439</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.072148753413892</v>
@@ -33192,7 +33132,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.278549056608907</v>
+        <v>1.272315490806211</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.264402271457328</v>
@@ -33281,7 +33221,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.280421967968419</v>
+        <v>1.276512769075832</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.304554723079083</v>
@@ -33370,7 +33310,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.268445986408642</v>
+        <v>1.262927541025226</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.300138197410313</v>
@@ -33459,7 +33399,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.278692682333041</v>
+        <v>1.27370642046551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.226842593572133</v>
@@ -33548,7 +33488,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.288840784168694</v>
+        <v>1.282922372309545</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.281063035421773</v>
@@ -33637,7 +33577,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.292243776062838</v>
+        <v>1.280387237306806</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.240243265803713</v>
@@ -33726,7 +33666,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.308899845913703</v>
+        <v>1.294214902159565</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.321528281631005</v>
@@ -33815,7 +33755,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.306172891362512</v>
+        <v>1.296252013482978</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.194860205085813</v>
@@ -33904,7 +33844,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.303768616293004</v>
+        <v>1.291669978436476</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.040389345129179</v>
@@ -33993,7 +33933,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.313734006632376</v>
+        <v>1.296952921433468</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.221192553989775</v>
@@ -34082,7 +34022,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.313097044765468</v>
+        <v>1.298847860141131</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.176304827512864</v>
@@ -34171,7 +34111,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.321941873064239</v>
+        <v>1.306990293616638</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.087090177405006</v>
@@ -34260,7 +34200,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.354007467055478</v>
+        <v>1.342405597792116</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.075238019392788</v>
@@ -34349,7 +34289,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.357747996839977</v>
+        <v>1.349430604491424</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.138855169728266</v>
@@ -34438,7 +34378,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.337793259878662</v>
+        <v>1.326803508966407</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.987184224567333</v>
@@ -34527,7 +34467,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.352649051395566</v>
+        <v>1.343766757493432</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.072208775930117</v>
@@ -34616,7 +34556,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.346661339289496</v>
+        <v>1.336969363074847</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.073874348943704</v>
@@ -34705,7 +34645,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.365763965160173</v>
+        <v>1.355304072950783</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.980151215980783</v>
@@ -34794,7 +34734,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.333750012052824</v>
+        <v>1.327115066936382</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.112126166038156</v>
@@ -34883,7 +34823,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.327991367817803</v>
+        <v>1.322172004943258</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.119277591402426</v>
@@ -34972,7 +34912,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.343366922061833</v>
+        <v>1.339951889248127</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.177397135403076</v>
